--- a/biology/Botanique/AVR_(machinisme_agricole)/AVR_(machinisme_agricole).xlsx
+++ b/biology/Botanique/AVR_(machinisme_agricole)/AVR_(machinisme_agricole).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">AVR (AVR bvba) est une entreprise familiale belge spécialisée dans la conception et la production de matériel agricole spécialisé pour la culture de la pomme de terre. Située à Roulers (province de Flandre-Occidentale), elle fabrique notamment des récolteuses de pommes de terre tractées ou automotrices et des défaneuses.
 Cette entreprise a été fondée en 1849. Le nom d'AVR fait référence à son fondateur, Alfons Vansteenkiste de Roulers.
-En 2012, AVR a racheté l'activité de fabrication de planteuses Underhaug de la société norvégienne TKS, poursuivant ainsi une stratégie qui consiste à proposer une gamme complète de machines destinée à la culture de la pomme de terre[1].
-AVR est l'un des principaux fabricants européens de machines agricoles destinées à la culture de la pomme de terre. Elle a réalisé en 2010 un chiffre d'affaires de 26,79 millions d'euros pour une marge bénéficiaire de 1,12 million d'euros[2]. 
-En 2007, la société a vendu 142 récolteuses de pommes de terre, dont 24 % en Belgique, 20 % en France, 19 % aux Pays-Bas et 13 % en Russie. Elle est cependant peu présente au Royaume-Uni[3], ainsi qu'en Allemagne, autres producteurs importants de pommes de terre en Europe de l'ouest.
-Elle emploie 70 personnes (2010). Ses administrateurs sont Stefan Top et Krist Nollet, qui se partagent le capital[2]. 
+En 2012, AVR a racheté l'activité de fabrication de planteuses Underhaug de la société norvégienne TKS, poursuivant ainsi une stratégie qui consiste à proposer une gamme complète de machines destinée à la culture de la pomme de terre.
+AVR est l'un des principaux fabricants européens de machines agricoles destinées à la culture de la pomme de terre. Elle a réalisé en 2010 un chiffre d'affaires de 26,79 millions d'euros pour une marge bénéficiaire de 1,12 million d'euros. 
+En 2007, la société a vendu 142 récolteuses de pommes de terre, dont 24 % en Belgique, 20 % en France, 19 % aux Pays-Bas et 13 % en Russie. Elle est cependant peu présente au Royaume-Uni, ainsi qu'en Allemagne, autres producteurs importants de pommes de terre en Europe de l'ouest.
+Elle emploie 70 personnes (2010). Ses administrateurs sont Stefan Top et Krist Nollet, qui se partagent le capital. 
 </t>
         </is>
       </c>
